--- a/LLM-eval/file/suite/single_function_16params.xlsx
+++ b/LLM-eval/file/suite/single_function_16params.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\LLM-eval\file\suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\i-eval\i-eval.git\LLM-eval\file\suite\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E924EEC0-AF38-4392-9E60-81980398AB3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8DBBF-846D-4DE6-B885-100CDC89C265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -222,8 +222,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{"completionTokens":"100","fcCount":1,"fcInfo":{"apiair-conditionerupdate_POST":16}}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>{"fcCount":1,"fcInfo":{"apiair-conditionerupdate_POST":16}}</t>
   </si>
 </sst>
 </file>
@@ -586,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
